--- a/REGULAR/OJT/NEW DONE/BERNALDEZ, MARLONE.xlsx
+++ b/REGULAR/OJT/NEW DONE/BERNALDEZ, MARLONE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE083C9-B964-471B-8DF2-9C60DC0BBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="261">
   <si>
     <t>PERIOD</t>
   </si>
@@ -818,12 +811,18 @@
   </si>
   <si>
     <t>05/25,26/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>6/26,27,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1054,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,9 +1193,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,7 +1494,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1515,25 +1511,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1840,95 +1836,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A384" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A395" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="H397" sqref="H397"/>
+      <selection pane="bottomLeft" activeCell="A398" sqref="A398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="58">
         <v>34662</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1936,7 +1932,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1949,24 +1945,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +1997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2010,7 +2006,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>102.64600000000004</v>
+        <v>99.646000000000043</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2025,11 +2021,11 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="13"/>
@@ -2049,8 +2045,8 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>35674</v>
       </c>
       <c r="B11" s="20"/>
@@ -2069,8 +2065,8 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <v>35704</v>
       </c>
       <c r="B12" s="20"/>
@@ -2089,8 +2085,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <v>35735</v>
       </c>
       <c r="B13" s="20"/>
@@ -2109,8 +2105,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>35765</v>
       </c>
       <c r="B14" s="20"/>
@@ -2129,7 +2125,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>75</v>
       </c>
@@ -2147,8 +2143,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>35796</v>
       </c>
       <c r="B16" s="20"/>
@@ -2167,8 +2163,8 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <v>35827</v>
       </c>
       <c r="B17" s="20"/>
@@ -2187,8 +2183,8 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <v>35855</v>
       </c>
       <c r="B18" s="20"/>
@@ -2207,8 +2203,8 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>35886</v>
       </c>
       <c r="B19" s="20"/>
@@ -2227,8 +2223,8 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
         <v>35916</v>
       </c>
       <c r="B20" s="20"/>
@@ -2247,8 +2243,8 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
         <v>35947</v>
       </c>
       <c r="B21" s="20"/>
@@ -2267,8 +2263,8 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
         <v>35977</v>
       </c>
       <c r="B22" s="20"/>
@@ -2287,8 +2283,8 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
         <v>36008</v>
       </c>
       <c r="B23" s="20"/>
@@ -2307,8 +2303,8 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
         <v>36039</v>
       </c>
       <c r="B24" s="20"/>
@@ -2327,8 +2323,8 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
         <v>36069</v>
       </c>
       <c r="B25" s="20"/>
@@ -2347,8 +2343,8 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>36100</v>
       </c>
       <c r="B26" s="20"/>
@@ -2367,8 +2363,8 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
         <v>36130</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -2391,7 +2387,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>76</v>
       </c>
@@ -2409,8 +2405,8 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
         <v>36161</v>
       </c>
       <c r="B29" s="20"/>
@@ -2429,8 +2425,8 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>36192</v>
       </c>
       <c r="B30" s="20"/>
@@ -2449,8 +2445,8 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
         <v>36220</v>
       </c>
       <c r="B31" s="20"/>
@@ -2469,8 +2465,8 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="49">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
         <v>36251</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -2493,8 +2489,8 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="49">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
         <v>36281</v>
       </c>
       <c r="B33" s="20"/>
@@ -2513,8 +2509,8 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
         <v>36312</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -2537,8 +2533,8 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
         <v>36342</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -2561,8 +2557,8 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
         <v>36373</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -2585,8 +2581,8 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
         <v>36404</v>
       </c>
       <c r="B37" s="20"/>
@@ -2605,8 +2601,8 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="49">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
         <v>36434</v>
       </c>
       <c r="B38" s="20"/>
@@ -2625,8 +2621,8 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
         <v>36465</v>
       </c>
       <c r="B39" s="20"/>
@@ -2645,8 +2641,8 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="49">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
         <v>36495</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -2669,7 +2665,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>77</v>
       </c>
@@ -2687,8 +2683,8 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="49">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
         <v>36526</v>
       </c>
       <c r="B42" s="20"/>
@@ -2707,8 +2703,8 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="49">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
         <v>36557</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -2731,8 +2727,8 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
         <v>36586</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -2755,8 +2751,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="49">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
         <v>36617</v>
       </c>
       <c r="B45" s="20"/>
@@ -2775,8 +2771,8 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="49">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
         <v>36647</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -2801,8 +2797,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>102</v>
       </c>
@@ -2823,8 +2819,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
         <v>36678</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -2847,8 +2843,8 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
         <v>36708</v>
       </c>
       <c r="B49" s="20"/>
@@ -2867,8 +2863,8 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="49">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
         <v>36739</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -2891,8 +2887,8 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="49">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
         <v>36770</v>
       </c>
       <c r="B51" s="20"/>
@@ -2911,8 +2907,8 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="49">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
         <v>36800</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -2935,8 +2931,8 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="49">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>36831</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -2961,8 +2957,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>97</v>
       </c>
@@ -2981,8 +2977,8 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="49">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
         <v>36861</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -3005,7 +3001,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>78</v>
       </c>
@@ -3023,8 +3019,8 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="49">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="23">
         <v>36892</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -3049,8 +3045,8 @@
         <v>36920</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>109</v>
       </c>
@@ -3069,8 +3065,8 @@
       <c r="J58" s="11"/>
       <c r="K58" s="48"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="49">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
         <v>36923</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -3095,8 +3091,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="49">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
         <v>36951</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -3119,8 +3115,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="49">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="23">
         <v>36982</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -3143,8 +3139,8 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="49">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
         <v>37012</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -3167,8 +3163,8 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="49">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
         <v>37043</v>
       </c>
       <c r="B63" s="20"/>
@@ -3187,8 +3183,8 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="49">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
         <v>37073</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -3213,8 +3209,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>114</v>
       </c>
@@ -3233,8 +3229,8 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="49">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
         <v>37104</v>
       </c>
       <c r="B66" s="20"/>
@@ -3253,8 +3249,8 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="49">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
         <v>37135</v>
       </c>
       <c r="B67" s="20"/>
@@ -3273,8 +3269,8 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="49">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="23">
         <v>37165</v>
       </c>
       <c r="B68" s="20" t="s">
@@ -3297,8 +3293,8 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="49">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
         <v>37196</v>
       </c>
       <c r="B69" s="20"/>
@@ -3317,8 +3313,8 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="49">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
         <v>37226</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -3343,7 +3339,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>79</v>
       </c>
@@ -3361,8 +3357,8 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="49">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="23">
         <v>37257</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -3385,8 +3381,8 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="49">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="23">
         <v>37288</v>
       </c>
       <c r="B73" s="20"/>
@@ -3405,8 +3401,8 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="49">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="23">
         <v>37316</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -3429,8 +3425,8 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="49">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="23">
         <v>37347</v>
       </c>
       <c r="B75" s="20" t="s">
@@ -3453,8 +3449,8 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="49">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="23">
         <v>37377</v>
       </c>
       <c r="B76" s="20"/>
@@ -3473,8 +3469,8 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="49">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="23">
         <v>37408</v>
       </c>
       <c r="B77" s="20"/>
@@ -3493,8 +3489,8 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="49">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="23">
         <v>37438</v>
       </c>
       <c r="B78" s="20"/>
@@ -3513,8 +3509,8 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="49">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="23">
         <v>37469</v>
       </c>
       <c r="B79" s="20"/>
@@ -3533,8 +3529,8 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="49">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="23">
         <v>37500</v>
       </c>
       <c r="B80" s="20"/>
@@ -3553,8 +3549,8 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="49">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="23">
         <v>37530</v>
       </c>
       <c r="B81" s="20"/>
@@ -3573,8 +3569,8 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="49">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="23">
         <v>37561</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -3599,8 +3595,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
       </c>
@@ -3621,8 +3617,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="49">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="23">
         <v>37591</v>
       </c>
       <c r="B84" s="20"/>
@@ -3641,7 +3637,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
         <v>80</v>
       </c>
@@ -3659,8 +3655,8 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="49">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="23">
         <v>37622</v>
       </c>
       <c r="B86" s="20"/>
@@ -3679,8 +3675,8 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="49">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="23">
         <v>37653</v>
       </c>
       <c r="B87" s="20"/>
@@ -3699,8 +3695,8 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="49">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="23">
         <v>37681</v>
       </c>
       <c r="B88" s="20"/>
@@ -3719,8 +3715,8 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="49">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="23">
         <v>37712</v>
       </c>
       <c r="B89" s="20"/>
@@ -3739,8 +3735,8 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="49">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="23">
         <v>37742</v>
       </c>
       <c r="B90" s="20"/>
@@ -3759,8 +3755,8 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="49">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="23">
         <v>37773</v>
       </c>
       <c r="B91" s="20"/>
@@ -3779,8 +3775,8 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="49">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="23">
         <v>37803</v>
       </c>
       <c r="B92" s="20"/>
@@ -3799,8 +3795,8 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="49">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="23">
         <v>37834</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -3825,8 +3821,8 @@
         <v>37857</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="49">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="23">
         <v>37865</v>
       </c>
       <c r="B94" s="20"/>
@@ -3845,8 +3841,8 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="49">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="23">
         <v>37895</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -3871,8 +3867,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="49">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="23">
         <v>37926</v>
       </c>
       <c r="B96" s="20" t="s">
@@ -3895,8 +3891,8 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="49">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="23">
         <v>37956</v>
       </c>
       <c r="B97" s="20" t="s">
@@ -3919,7 +3915,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>81</v>
       </c>
@@ -3937,8 +3933,8 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="49">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="23">
         <v>37987</v>
       </c>
       <c r="B99" s="20"/>
@@ -3957,8 +3953,8 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="49">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="23">
         <v>38018</v>
       </c>
       <c r="B100" s="20" t="s">
@@ -3981,8 +3977,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="49">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="23">
         <v>38047</v>
       </c>
       <c r="B101" s="20" t="s">
@@ -4007,8 +4003,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="49">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="23">
         <v>38078</v>
       </c>
       <c r="B102" s="20"/>
@@ -4027,8 +4023,8 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="49">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="23">
         <v>38108</v>
       </c>
       <c r="B103" s="20" t="s">
@@ -4051,8 +4047,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="49">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="23">
         <v>38139</v>
       </c>
       <c r="B104" s="20"/>
@@ -4071,8 +4067,8 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="49">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="23">
         <v>38169</v>
       </c>
       <c r="B105" s="20"/>
@@ -4091,8 +4087,8 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="49">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="23">
         <v>38200</v>
       </c>
       <c r="B106" s="20"/>
@@ -4111,8 +4107,8 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="49">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="23">
         <v>38231</v>
       </c>
       <c r="B107" s="20"/>
@@ -4131,8 +4127,8 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="49">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="23">
         <v>38261</v>
       </c>
       <c r="B108" s="20"/>
@@ -4151,8 +4147,8 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="49">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="23">
         <v>38292</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -4177,8 +4173,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="49">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="23">
         <v>38322</v>
       </c>
       <c r="B110" s="20"/>
@@ -4197,7 +4193,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="47" t="s">
         <v>82</v>
       </c>
@@ -4215,8 +4211,8 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="49">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="23">
         <v>38353</v>
       </c>
       <c r="B112" s="20" t="s">
@@ -4239,8 +4235,8 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="49">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="23">
         <v>38384</v>
       </c>
       <c r="B113" s="20" t="s">
@@ -4263,8 +4259,8 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="49">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="23">
         <v>38412</v>
       </c>
       <c r="B114" s="20" t="s">
@@ -4285,8 +4281,8 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>127</v>
       </c>
@@ -4305,8 +4301,8 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="49">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="23">
         <v>38443</v>
       </c>
       <c r="B116" s="20" t="s">
@@ -4329,8 +4325,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>129</v>
       </c>
@@ -4349,8 +4345,8 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="49">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="23">
         <v>38473</v>
       </c>
       <c r="B118" s="20" t="s">
@@ -4373,8 +4369,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="49">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="23">
         <v>38504</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -4399,8 +4395,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="49">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="23">
         <v>38534</v>
       </c>
       <c r="B120" s="20"/>
@@ -4419,8 +4415,8 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="49">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="23">
         <v>38565</v>
       </c>
       <c r="B121" s="20"/>
@@ -4439,8 +4435,8 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="49">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="23">
         <v>38596</v>
       </c>
       <c r="B122" s="20"/>
@@ -4459,8 +4455,8 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="49">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="23">
         <v>38626</v>
       </c>
       <c r="B123" s="20"/>
@@ -4479,8 +4475,8 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="49">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="23">
         <v>38657</v>
       </c>
       <c r="B124" s="20"/>
@@ -4499,8 +4495,8 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="49">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="23">
         <v>38687</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -4523,7 +4519,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="47" t="s">
         <v>83</v>
       </c>
@@ -4541,8 +4537,8 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="49">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="23">
         <v>38718</v>
       </c>
       <c r="B127" s="20"/>
@@ -4561,8 +4557,8 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="49">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="23">
         <v>38749</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -4585,8 +4581,8 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="49">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="23">
         <v>38777</v>
       </c>
       <c r="B129" s="20" t="s">
@@ -4609,8 +4605,8 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="49">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="23">
         <v>38808</v>
       </c>
       <c r="B130" s="20"/>
@@ -4629,8 +4625,8 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="49">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="23">
         <v>38838</v>
       </c>
       <c r="B131" s="20" t="s">
@@ -4653,8 +4649,8 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="49">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="23">
         <v>38869</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -4677,8 +4673,8 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="49">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="23">
         <v>38899</v>
       </c>
       <c r="B133" s="20" t="s">
@@ -4701,8 +4697,8 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="49">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="23">
         <v>38930</v>
       </c>
       <c r="B134" s="20" t="s">
@@ -4727,8 +4723,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="49">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="23">
         <v>38961</v>
       </c>
       <c r="B135" s="20" t="s">
@@ -4753,8 +4749,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="49">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="23">
         <v>38991</v>
       </c>
       <c r="B136" s="20"/>
@@ -4773,8 +4769,8 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="49">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="23">
         <v>39022</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -4797,8 +4793,8 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="49">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="23">
         <v>39052</v>
       </c>
       <c r="B138" s="20" t="s">
@@ -4821,8 +4817,8 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>146</v>
       </c>
@@ -4841,8 +4837,8 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>147</v>
       </c>
@@ -4861,7 +4857,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="47" t="s">
         <v>84</v>
       </c>
@@ -4879,8 +4875,8 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="49">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="23">
         <v>39083</v>
       </c>
       <c r="B142" s="20"/>
@@ -4899,8 +4895,8 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="49">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="23">
         <v>39114</v>
       </c>
       <c r="B143" s="20" t="s">
@@ -4925,8 +4921,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>151</v>
       </c>
@@ -4947,8 +4943,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="49">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="23">
         <v>39142</v>
       </c>
       <c r="B145" s="20" t="s">
@@ -4969,12 +4965,12 @@
       </c>
       <c r="I145" s="34"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="51" t="s">
+      <c r="K145" s="50" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="49"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>139</v>
       </c>
@@ -4991,10 +4987,10 @@
       </c>
       <c r="I146" s="34"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="51"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="49"/>
+      <c r="K146" s="50"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>141</v>
       </c>
@@ -5011,12 +5007,12 @@
       </c>
       <c r="I147" s="34"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="51" t="s">
+      <c r="K147" s="50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="49">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="23">
         <v>39173</v>
       </c>
       <c r="B148" s="20" t="s">
@@ -5041,8 +5037,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="49">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="23">
         <v>39203</v>
       </c>
       <c r="B149" s="20" t="s">
@@ -5067,8 +5063,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="49">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="23">
         <v>39234</v>
       </c>
       <c r="B150" s="20" t="s">
@@ -5093,8 +5089,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="49"/>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>49</v>
       </c>
@@ -5113,8 +5109,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="49">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="23">
         <v>39264</v>
       </c>
       <c r="B152" s="20"/>
@@ -5133,8 +5129,8 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="49">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="23">
         <v>39295</v>
       </c>
       <c r="B153" s="20" t="s">
@@ -5159,8 +5155,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="49"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>159</v>
       </c>
@@ -5179,8 +5175,8 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="49">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="23">
         <v>39326</v>
       </c>
       <c r="B155" s="20" t="s">
@@ -5205,8 +5201,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="49">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="23">
         <v>39356</v>
       </c>
       <c r="B156" s="20" t="s">
@@ -5229,8 +5225,8 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="49">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="23">
         <v>39387</v>
       </c>
       <c r="B157" s="20" t="s">
@@ -5255,8 +5251,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="49"/>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>133</v>
       </c>
@@ -5277,8 +5273,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="49"/>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>102</v>
       </c>
@@ -5299,8 +5295,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="49">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="23">
         <v>39417</v>
       </c>
       <c r="B160" s="20" t="s">
@@ -5323,7 +5319,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="47" t="s">
         <v>85</v>
       </c>
@@ -5341,8 +5337,8 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="49">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="23">
         <v>39448</v>
       </c>
       <c r="B162" s="20" t="s">
@@ -5367,8 +5363,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="49"/>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>168</v>
       </c>
@@ -5387,8 +5383,8 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="49">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="23">
         <v>39479</v>
       </c>
       <c r="B164" s="20" t="s">
@@ -5411,8 +5407,8 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="49">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="23">
         <v>39508</v>
       </c>
       <c r="B165" s="20" t="s">
@@ -5435,8 +5431,8 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="49">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="23">
         <v>39539</v>
       </c>
       <c r="B166" s="20" t="s">
@@ -5459,8 +5455,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="49"/>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>55</v>
       </c>
@@ -5481,8 +5477,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="49"/>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>172</v>
       </c>
@@ -5501,8 +5497,8 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="49">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="23">
         <v>39569</v>
       </c>
       <c r="B169" s="20" t="s">
@@ -5525,8 +5521,8 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="49">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="23">
         <v>39600</v>
       </c>
       <c r="B170" s="20" t="s">
@@ -5549,8 +5545,8 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="49">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="23">
         <v>39630</v>
       </c>
       <c r="B171" s="20" t="s">
@@ -5573,8 +5569,8 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="49">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="23">
         <v>39661</v>
       </c>
       <c r="B172" s="20" t="s">
@@ -5597,8 +5593,8 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="49">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="23">
         <v>39692</v>
       </c>
       <c r="B173" s="20" t="s">
@@ -5621,8 +5617,8 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="49">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="23">
         <v>39722</v>
       </c>
       <c r="B174" s="20" t="s">
@@ -5647,8 +5643,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="49">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="23">
         <v>39753</v>
       </c>
       <c r="B175" s="20" t="s">
@@ -5673,8 +5669,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="49">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="23">
         <v>39783</v>
       </c>
       <c r="B176" s="20"/>
@@ -5693,7 +5689,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="47" t="s">
         <v>86</v>
       </c>
@@ -5711,8 +5707,8 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="49">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="23">
         <v>39814</v>
       </c>
       <c r="B178" s="20" t="s">
@@ -5737,8 +5733,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="49"/>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>57</v>
       </c>
@@ -5759,8 +5755,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="49"/>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>183</v>
       </c>
@@ -5779,8 +5775,8 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="49">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="23">
         <v>39845</v>
       </c>
       <c r="B181" s="20" t="s">
@@ -5805,8 +5801,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="49"/>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>185</v>
       </c>
@@ -5825,8 +5821,8 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="49">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="23">
         <v>39873</v>
       </c>
       <c r="B183" s="20" t="s">
@@ -5851,8 +5847,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="49"/>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>187</v>
       </c>
@@ -5871,8 +5867,8 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="49">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="23">
         <v>39904</v>
       </c>
       <c r="B185" s="20" t="s">
@@ -5897,8 +5893,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="49"/>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>189</v>
       </c>
@@ -5917,8 +5913,8 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="49">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="23">
         <v>39934</v>
       </c>
       <c r="B187" s="20" t="s">
@@ -5941,8 +5937,8 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="49">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="23">
         <v>39965</v>
       </c>
       <c r="B188" s="20" t="s">
@@ -5965,8 +5961,8 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="49">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="23">
         <v>39995</v>
       </c>
       <c r="B189" s="20" t="s">
@@ -5989,8 +5985,8 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="49">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="23">
         <v>40026</v>
       </c>
       <c r="B190" s="20" t="s">
@@ -6013,8 +6009,8 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="49">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="23">
         <v>40057</v>
       </c>
       <c r="B191" s="20"/>
@@ -6033,8 +6029,8 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="49">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="23">
         <v>40087</v>
       </c>
       <c r="B192" s="20" t="s">
@@ -6057,8 +6053,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="49"/>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>139</v>
       </c>
@@ -6079,8 +6075,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="49"/>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>196</v>
       </c>
@@ -6099,8 +6095,8 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="49">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="23">
         <v>40118</v>
       </c>
       <c r="B195" s="20"/>
@@ -6119,8 +6115,8 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="49">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="23">
         <v>40148</v>
       </c>
       <c r="B196" s="20" t="s">
@@ -6145,8 +6141,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="49"/>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>108</v>
       </c>
@@ -6165,7 +6161,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="47" t="s">
         <v>87</v>
       </c>
@@ -6183,8 +6179,8 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="49">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="23">
         <v>40179</v>
       </c>
       <c r="B199" s="20" t="s">
@@ -6207,8 +6203,8 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="49">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="23">
         <v>40210</v>
       </c>
       <c r="B200" s="20" t="s">
@@ -6231,8 +6227,8 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="49">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="23">
         <v>40238</v>
       </c>
       <c r="B201" s="20" t="s">
@@ -6255,8 +6251,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="49"/>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>201</v>
       </c>
@@ -6275,8 +6271,8 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="49">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="23">
         <v>40269</v>
       </c>
       <c r="B203" s="20" t="s">
@@ -6299,8 +6295,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="49"/>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>203</v>
       </c>
@@ -6319,8 +6315,8 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="49">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="23">
         <v>40299</v>
       </c>
       <c r="B205" s="20" t="s">
@@ -6343,8 +6339,8 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="49">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="23">
         <v>40330</v>
       </c>
       <c r="B206" s="20" t="s">
@@ -6367,8 +6363,8 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="49">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="23">
         <v>40360</v>
       </c>
       <c r="B207" s="20" t="s">
@@ -6391,8 +6387,8 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="49">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="23">
         <v>40391</v>
       </c>
       <c r="B208" s="20" t="s">
@@ -6415,8 +6411,8 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="49">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="23">
         <v>40422</v>
       </c>
       <c r="B209" s="20" t="s">
@@ -6439,8 +6435,8 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="49">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="23">
         <v>40452</v>
       </c>
       <c r="B210" s="20" t="s">
@@ -6463,8 +6459,8 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="49">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="23">
         <v>40483</v>
       </c>
       <c r="B211" s="20" t="s">
@@ -6489,8 +6485,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="49"/>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>105</v>
       </c>
@@ -6509,8 +6505,8 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="49">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="23">
         <v>40513</v>
       </c>
       <c r="B213" s="20" t="s">
@@ -6533,8 +6529,8 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="49"/>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>55</v>
       </c>
@@ -6553,7 +6549,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="47" t="s">
         <v>88</v>
       </c>
@@ -6571,8 +6567,8 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="49">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="23">
         <v>40544</v>
       </c>
       <c r="B216" s="20" t="s">
@@ -6595,8 +6591,8 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="49">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="23">
         <v>40575</v>
       </c>
       <c r="B217" s="20" t="s">
@@ -6619,8 +6615,8 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="49">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="23">
         <v>40603</v>
       </c>
       <c r="B218" s="20" t="s">
@@ -6645,8 +6641,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="49"/>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>214</v>
       </c>
@@ -6665,8 +6661,8 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="49">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="23">
         <v>40634</v>
       </c>
       <c r="B220" s="20" t="s">
@@ -6689,8 +6685,8 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="49">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="23">
         <v>40664</v>
       </c>
       <c r="B221" s="20" t="s">
@@ -6715,8 +6711,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="49"/>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>217</v>
       </c>
@@ -6735,8 +6731,8 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="49">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="23">
         <v>40695</v>
       </c>
       <c r="B223" s="20"/>
@@ -6755,8 +6751,8 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="49">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="23">
         <v>40725</v>
       </c>
       <c r="B224" s="20"/>
@@ -6775,8 +6771,8 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="49">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="23">
         <v>40756</v>
       </c>
       <c r="B225" s="20"/>
@@ -6795,8 +6791,8 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="49">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="23">
         <v>40787</v>
       </c>
       <c r="B226" s="20"/>
@@ -6815,8 +6811,8 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="49">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="23">
         <v>40817</v>
       </c>
       <c r="B227" s="20"/>
@@ -6835,8 +6831,8 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="49">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="23">
         <v>40848</v>
       </c>
       <c r="B228" s="20" t="s">
@@ -6859,8 +6855,8 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="49">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="23">
         <v>40878</v>
       </c>
       <c r="B229" s="20" t="s">
@@ -6883,8 +6879,8 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="49"/>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>219</v>
       </c>
@@ -6903,7 +6899,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="47" t="s">
         <v>89</v>
       </c>
@@ -6921,8 +6917,8 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="49">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="23">
         <v>40909</v>
       </c>
       <c r="B232" s="20" t="s">
@@ -6947,8 +6943,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="49"/>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>102</v>
       </c>
@@ -6969,8 +6965,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="49">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="23">
         <v>40940</v>
       </c>
       <c r="B234" s="20"/>
@@ -6989,8 +6985,8 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="49">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="23">
         <v>40969</v>
       </c>
       <c r="B235" s="20"/>
@@ -7009,8 +7005,8 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="49">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="23">
         <v>41000</v>
       </c>
       <c r="B236" s="20"/>
@@ -7029,8 +7025,8 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="49">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="23">
         <v>41030</v>
       </c>
       <c r="B237" s="20" t="s">
@@ -7055,8 +7051,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="49">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="23">
         <v>41061</v>
       </c>
       <c r="B238" s="20" t="s">
@@ -7079,8 +7075,8 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="49">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="23">
         <v>41091</v>
       </c>
       <c r="B239" s="20"/>
@@ -7099,8 +7095,8 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="49">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="23">
         <v>41122</v>
       </c>
       <c r="B240" s="20" t="s">
@@ -7125,8 +7121,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="49">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="23">
         <v>41153</v>
       </c>
       <c r="B241" s="20"/>
@@ -7145,8 +7141,8 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="49">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="23">
         <v>41183</v>
       </c>
       <c r="B242" s="20"/>
@@ -7165,8 +7161,8 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="49">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="23">
         <v>41214</v>
       </c>
       <c r="B243" s="20"/>
@@ -7185,8 +7181,8 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="49">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="23">
         <v>41244</v>
       </c>
       <c r="B244" s="20"/>
@@ -7205,7 +7201,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="47" t="s">
         <v>90</v>
       </c>
@@ -7223,8 +7219,8 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="49">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="23">
         <v>41275</v>
       </c>
       <c r="B246" s="20" t="s">
@@ -7249,8 +7245,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="49"/>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>179</v>
       </c>
@@ -7271,8 +7267,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="49">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="23">
         <v>41306</v>
       </c>
       <c r="B248" s="20"/>
@@ -7291,8 +7287,8 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="49">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="23">
         <v>41334</v>
       </c>
       <c r="B249" s="20" t="s">
@@ -7317,8 +7313,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="49">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="23">
         <v>41365</v>
       </c>
       <c r="B250" s="20" t="s">
@@ -7343,8 +7339,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="49">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="23">
         <v>41395</v>
       </c>
       <c r="B251" s="20"/>
@@ -7363,8 +7359,8 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="49">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="23">
         <v>41426</v>
       </c>
       <c r="B252" s="20"/>
@@ -7383,8 +7379,8 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="49">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="23">
         <v>41456</v>
       </c>
       <c r="B253" s="20"/>
@@ -7403,8 +7399,8 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="49">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="23">
         <v>41487</v>
       </c>
       <c r="B254" s="20" t="s">
@@ -7429,8 +7425,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="49"/>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>187</v>
       </c>
@@ -7449,8 +7445,8 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="49">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="23">
         <v>41518</v>
       </c>
       <c r="B256" s="20" t="s">
@@ -7473,8 +7469,8 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="49">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="23">
         <v>41548</v>
       </c>
       <c r="B257" s="20" t="s">
@@ -7497,8 +7493,8 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="49">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="23">
         <v>41579</v>
       </c>
       <c r="B258" s="20" t="s">
@@ -7521,8 +7517,8 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="49">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="23">
         <v>41609</v>
       </c>
       <c r="B259" s="20" t="s">
@@ -7545,8 +7541,8 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="49"/>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>102</v>
       </c>
@@ -7567,7 +7563,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="47" t="s">
         <v>91</v>
       </c>
@@ -7585,8 +7581,8 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="49">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="23">
         <v>41640</v>
       </c>
       <c r="B262" s="20" t="s">
@@ -7611,8 +7607,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="49"/>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>238</v>
       </c>
@@ -7631,8 +7627,8 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="49">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="23">
         <v>41671</v>
       </c>
       <c r="B264" s="20" t="s">
@@ -7655,8 +7651,8 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="49">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="23">
         <v>41699</v>
       </c>
       <c r="B265" s="20" t="s">
@@ -7679,8 +7675,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="49"/>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>45</v>
       </c>
@@ -7701,8 +7697,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="49"/>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>240</v>
       </c>
@@ -7721,8 +7717,8 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="49">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="23">
         <v>41730</v>
       </c>
       <c r="B268" s="20" t="s">
@@ -7747,8 +7743,8 @@
         <v>41759</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="49">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="23">
         <v>41760</v>
       </c>
       <c r="B269" s="20" t="s">
@@ -7771,8 +7767,8 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="49"/>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>102</v>
       </c>
@@ -7793,8 +7789,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="49">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="23">
         <v>41791</v>
       </c>
       <c r="B271" s="20" t="s">
@@ -7819,8 +7815,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="49"/>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>57</v>
       </c>
@@ -7841,8 +7837,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="49">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="23">
         <v>41821</v>
       </c>
       <c r="B273" s="20" t="s">
@@ -7865,8 +7861,8 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="49">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="23">
         <v>41852</v>
       </c>
       <c r="B274" s="20"/>
@@ -7885,8 +7881,8 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="49">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="23">
         <v>41883</v>
       </c>
       <c r="B275" s="20"/>
@@ -7905,8 +7901,8 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="49">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="23">
         <v>41913</v>
       </c>
       <c r="B276" s="20" t="s">
@@ -7929,8 +7925,8 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="49"/>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>65</v>
       </c>
@@ -7951,8 +7947,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="49">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="23">
         <v>41944</v>
       </c>
       <c r="B278" s="20" t="s">
@@ -7975,8 +7971,8 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="49">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="23">
         <v>41974</v>
       </c>
       <c r="B279" s="20" t="s">
@@ -8001,8 +7997,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="49"/>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>251</v>
       </c>
@@ -8021,7 +8017,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="47" t="s">
         <v>92</v>
       </c>
@@ -8039,8 +8035,8 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="49">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="23">
         <v>42005</v>
       </c>
       <c r="B282" s="20"/>
@@ -8059,8 +8055,8 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="49">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="23">
         <v>42036</v>
       </c>
       <c r="B283" s="20"/>
@@ -8079,8 +8075,8 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="49">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="23">
         <v>42064</v>
       </c>
       <c r="B284" s="20" t="s">
@@ -8105,8 +8101,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="49">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="23">
         <v>42095</v>
       </c>
       <c r="B285" s="20"/>
@@ -8125,8 +8121,8 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="49">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="23">
         <v>42125</v>
       </c>
       <c r="B286" s="20"/>
@@ -8145,8 +8141,8 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="49">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="23">
         <v>42156</v>
       </c>
       <c r="B287" s="20"/>
@@ -8165,8 +8161,8 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="49">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="23">
         <v>42186</v>
       </c>
       <c r="B288" s="20"/>
@@ -8185,8 +8181,8 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="49">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="23">
         <v>42217</v>
       </c>
       <c r="B289" s="20"/>
@@ -8205,8 +8201,8 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="49">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="23">
         <v>42248</v>
       </c>
       <c r="B290" s="20"/>
@@ -8225,8 +8221,8 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="49">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="23">
         <v>42278</v>
       </c>
       <c r="B291" s="20"/>
@@ -8245,8 +8241,8 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="49">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="23">
         <v>42309</v>
       </c>
       <c r="B292" s="20"/>
@@ -8265,8 +8261,8 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="49">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="23">
         <v>42339</v>
       </c>
       <c r="B293" s="20" t="s">
@@ -8289,7 +8285,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="47" t="s">
         <v>93</v>
       </c>
@@ -8307,8 +8303,8 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="49">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="23">
         <v>42370</v>
       </c>
       <c r="B295" s="20"/>
@@ -8327,8 +8323,8 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="49">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="23">
         <v>42401</v>
       </c>
       <c r="B296" s="20"/>
@@ -8347,8 +8343,8 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="49">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="23">
         <v>42430</v>
       </c>
       <c r="B297" s="20"/>
@@ -8367,8 +8363,8 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="49">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="23">
         <v>42461</v>
       </c>
       <c r="B298" s="20"/>
@@ -8387,8 +8383,8 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="49">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="23">
         <v>42491</v>
       </c>
       <c r="B299" s="20"/>
@@ -8407,8 +8403,8 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="49">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="23">
         <v>42522</v>
       </c>
       <c r="B300" s="20"/>
@@ -8427,8 +8423,8 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="49">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="23">
         <v>42552</v>
       </c>
       <c r="B301" s="20"/>
@@ -8447,8 +8443,8 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="49">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="23">
         <v>42583</v>
       </c>
       <c r="B302" s="20" t="s">
@@ -8473,8 +8469,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="49">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="23">
         <v>42614</v>
       </c>
       <c r="B303" s="20"/>
@@ -8493,8 +8489,8 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="49">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="23">
         <v>42644</v>
       </c>
       <c r="B304" s="20"/>
@@ -8513,8 +8509,8 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="49">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="23">
         <v>42675</v>
       </c>
       <c r="B305" s="20"/>
@@ -8533,8 +8529,8 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="49">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="23">
         <v>42705</v>
       </c>
       <c r="B306" s="20"/>
@@ -8553,7 +8549,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="47" t="s">
         <v>94</v>
       </c>
@@ -8571,8 +8567,8 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="49">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="23">
         <v>42736</v>
       </c>
       <c r="B308" s="20"/>
@@ -8591,8 +8587,8 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="49">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="23">
         <v>42767</v>
       </c>
       <c r="B309" s="20"/>
@@ -8611,8 +8607,8 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="49">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="23">
         <v>42795</v>
       </c>
       <c r="B310" s="20" t="s">
@@ -8637,8 +8633,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="49">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="23">
         <v>42826</v>
       </c>
       <c r="B311" s="20" t="s">
@@ -8661,8 +8657,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="49">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="23">
         <v>42856</v>
       </c>
       <c r="B312" s="20"/>
@@ -8681,8 +8677,8 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="49">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="23">
         <v>42887</v>
       </c>
       <c r="B313" s="20"/>
@@ -8701,8 +8697,8 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="49">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="23">
         <v>42917</v>
       </c>
       <c r="B314" s="20"/>
@@ -8721,8 +8717,8 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="49">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="23">
         <v>42948</v>
       </c>
       <c r="B315" s="20" t="s">
@@ -8747,8 +8743,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="49">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="23">
         <v>42979</v>
       </c>
       <c r="B316" s="20"/>
@@ -8767,8 +8763,8 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="49">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="23">
         <v>43009</v>
       </c>
       <c r="B317" s="20"/>
@@ -8787,8 +8783,8 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="49">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="23">
         <v>43040</v>
       </c>
       <c r="B318" s="20"/>
@@ -8807,8 +8803,8 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="49">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="23">
         <v>43070</v>
       </c>
       <c r="B319" s="20"/>
@@ -8827,7 +8823,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="47" t="s">
         <v>44</v>
       </c>
@@ -8845,7 +8841,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>43101</v>
       </c>
@@ -8869,7 +8865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43132</v>
       </c>
@@ -8889,7 +8885,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>43160</v>
       </c>
@@ -8909,7 +8905,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43191</v>
       </c>
@@ -8935,7 +8931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>46</v>
@@ -8954,7 +8950,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>47</v>
@@ -8973,7 +8969,7 @@
         <v>43183</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>48</v>
@@ -8992,7 +8988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>49</v>
@@ -9009,7 +9005,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43221</v>
       </c>
@@ -9029,7 +9025,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>43252</v>
       </c>
@@ -9049,7 +9045,7 @@
       <c r="J330" s="12"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43282</v>
       </c>
@@ -9069,7 +9065,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>43313</v>
       </c>
@@ -9089,7 +9085,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>43344</v>
       </c>
@@ -9109,7 +9105,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>43374</v>
       </c>
@@ -9129,7 +9125,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>43405</v>
       </c>
@@ -9149,7 +9145,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>43435</v>
       </c>
@@ -9169,7 +9165,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="47" t="s">
         <v>54</v>
       </c>
@@ -9187,7 +9183,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>43466</v>
       </c>
@@ -9207,7 +9203,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>43497</v>
       </c>
@@ -9227,7 +9223,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>43525</v>
       </c>
@@ -9247,7 +9243,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>43556</v>
       </c>
@@ -9267,7 +9263,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>43586</v>
       </c>
@@ -9287,7 +9283,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>43617</v>
       </c>
@@ -9307,7 +9303,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>43647</v>
       </c>
@@ -9327,7 +9323,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>43678</v>
       </c>
@@ -9347,7 +9343,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>43709</v>
       </c>
@@ -9367,7 +9363,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>43739</v>
       </c>
@@ -9387,7 +9383,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>43770</v>
       </c>
@@ -9407,7 +9403,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43800</v>
       </c>
@@ -9431,7 +9427,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="47" t="s">
         <v>56</v>
       </c>
@@ -9449,7 +9445,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>43831</v>
       </c>
@@ -9475,7 +9471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>43862</v>
       </c>
@@ -9499,7 +9495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>43891</v>
       </c>
@@ -9519,7 +9515,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>43922</v>
       </c>
@@ -9539,7 +9535,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>43952</v>
       </c>
@@ -9559,7 +9555,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>43983</v>
       </c>
@@ -9579,7 +9575,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>44013</v>
       </c>
@@ -9599,7 +9595,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44044</v>
       </c>
@@ -9619,7 +9615,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>44075</v>
       </c>
@@ -9639,7 +9635,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>44105</v>
       </c>
@@ -9659,7 +9655,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44136</v>
       </c>
@@ -9679,7 +9675,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44166</v>
       </c>
@@ -9703,7 +9699,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="47" t="s">
         <v>61</v>
       </c>
@@ -9721,7 +9717,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44197</v>
       </c>
@@ -9741,7 +9737,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44228</v>
       </c>
@@ -9761,7 +9757,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44256</v>
       </c>
@@ -9781,7 +9777,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44287</v>
       </c>
@@ -9801,7 +9797,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44317</v>
       </c>
@@ -9821,7 +9817,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44348</v>
       </c>
@@ -9841,7 +9837,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44378</v>
       </c>
@@ -9861,7 +9857,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44409</v>
       </c>
@@ -9881,7 +9877,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44440</v>
       </c>
@@ -9901,7 +9897,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44470</v>
       </c>
@@ -9921,7 +9917,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>44501</v>
       </c>
@@ -9941,7 +9937,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>44531</v>
       </c>
@@ -9967,7 +9963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="47" t="s">
         <v>64</v>
       </c>
@@ -9985,7 +9981,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>44562</v>
       </c>
@@ -10005,7 +10001,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44593</v>
       </c>
@@ -10025,7 +10021,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>44621</v>
       </c>
@@ -10051,7 +10047,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>47</v>
@@ -10070,7 +10066,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>65</v>
@@ -10089,7 +10085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>44652</v>
       </c>
@@ -10109,7 +10105,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>44682</v>
       </c>
@@ -10129,7 +10125,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>44713</v>
       </c>
@@ -10149,7 +10145,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>44743</v>
       </c>
@@ -10169,7 +10165,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>44774</v>
       </c>
@@ -10189,7 +10185,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>44805</v>
       </c>
@@ -10209,7 +10205,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>44835</v>
       </c>
@@ -10235,7 +10231,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>44866</v>
       </c>
@@ -10261,7 +10257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>44896</v>
       </c>
@@ -10281,7 +10277,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="47" t="s">
         <v>71</v>
       </c>
@@ -10299,7 +10295,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>44927</v>
       </c>
@@ -10319,7 +10315,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>44958</v>
       </c>
@@ -10339,7 +10335,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>44986</v>
       </c>
@@ -10365,7 +10361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>45017</v>
       </c>
@@ -10385,7 +10381,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>45047</v>
       </c>
@@ -10411,11 +10407,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="40"/>
-      <c r="B397" s="20"/>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A397" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B397" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="C397" s="13"/>
-      <c r="D397" s="39"/>
+      <c r="D397" s="39">
+        <v>3</v>
+      </c>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
       <c r="G397" s="13" t="str">
@@ -10425,9 +10427,11 @@
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="20"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K397" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10443,7 +10447,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10459,7 +10463,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10475,7 +10479,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10491,7 +10495,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10507,7 +10511,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10523,7 +10527,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10539,7 +10543,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10570,10 +10574,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10596,41 +10600,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10659,7 +10663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>27.542000000000002</v>
       </c>
@@ -10689,17 +10693,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10713,14 +10717,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10747,7 +10751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10773,7 +10777,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10799,7 +10803,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10825,7 +10829,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10903,7 +10907,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10949,7 +10953,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10989,7 +10993,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11010,7 +11014,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11031,7 +11035,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11052,7 +11056,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11073,7 +11077,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11094,7 +11098,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11115,7 +11119,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11157,7 +11161,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11178,7 +11182,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11199,7 +11203,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11220,7 +11224,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11241,7 +11245,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11262,7 +11266,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11304,7 +11308,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11325,7 +11329,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11346,7 +11350,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11367,7 +11371,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11388,7 +11392,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11409,7 +11413,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11418,7 +11422,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11427,7 +11431,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11436,7 +11440,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11445,7 +11449,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11454,7 +11458,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11463,7 +11467,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11472,7 +11476,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11481,7 +11485,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11490,7 +11494,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11499,7 +11503,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11508,7 +11512,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11517,7 +11521,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11526,7 +11530,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11535,7 +11539,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11544,7 +11548,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11553,7 +11557,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11562,7 +11566,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11571,7 +11575,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11580,7 +11584,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11589,7 +11593,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11598,7 +11602,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11607,7 +11611,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11616,7 +11620,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11625,7 +11629,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11634,7 +11638,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11643,7 +11647,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11652,7 +11656,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11661,7 +11665,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11670,7 +11674,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
